--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Marie_Cyprien_Victor_Coste/Jacques_Marie_Cyprien_Victor_Coste.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Marie_Cyprien_Victor_Coste/Jacques_Marie_Cyprien_Victor_Coste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Marie Cyprien Victor Coste est un naturaliste français, né le 11 mai 1807 à Castries et mort le 19 septembre 1873 à Résenlieu (anciennement Rézenlieu) près de Gacé (Orne).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jacques Coste et de Marguerite née Julien. Il étudie la médecine à la Faculté de médecine de Montpellier et suit notamment les cours de Jacques Mathieu Delpech (1777-1832). Il étudie, auprès de lui, une épidémie de choléra en Écosse.
 Il enseigne l’anatomie à l’École pratique de Paris à partir de 1836 et enseigne l’embryologie au Collège de France à partir de 1844.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cours d'embryogénie comparée (Paris, 1837)
 Ovologie du kangourou (Paris, 1838)
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Wikins Noël P. Ponds, passes and parcs : aquaculture in Victorian Ireland, 1989, Dublin : The Glandale, Press LDT, Edit., 352 p.
